--- a/biology/Médecine/Articulation_atlanto-axoïdienne_médiane/Articulation_atlanto-axoïdienne_médiane.xlsx
+++ b/biology/Médecine/Articulation_atlanto-axoïdienne_médiane/Articulation_atlanto-axoïdienne_médiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_atlanto-axo%C3%AFdienne_m%C3%A9diane</t>
+          <t>Articulation_atlanto-axoïdienne_médiane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation atlanto-axoïdienne médiane (ou articulation atlanto-odontoïdienne ou articulation atloïdo-odontoïdienne) est une des trois articulations constitutives de l'articulation atlanto-axoïdienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Articulation_atlanto-axo%C3%AFdienne_m%C3%A9diane</t>
+          <t>Articulation_atlanto-axoïdienne_médiane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation atlanto-axoïdienne médiane est une articulation de type trochoïde.
 Elle unit le processus odontoïde de l'axis à l'atlas.
 Les surfaces articulaires constituent deux articulations : l'articulation atlanto-axoïdienne médiane antérieure et l'articulation atlanto-axoïdienne médiane postérieure
-Articulation atlanto-axoïdienne médiane antérieure
-L'articulation atlanto-axoïdienne médiane antérieure est constituée de la facette articulaire antérieure du processus odontoïde et de la facette articulaire de la face postérieure de l'arc antérieur de l'atlas.
-Articulation atlanto-axoïdienne médiane postérieure
-L'articulation atlanto-axoïdienne médiane postérieure est constituée de la facette articulaire postérieure du processus odontoïde et du ligament transverse de l'atlas.
 </t>
         </is>
       </c>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Articulation_atlanto-axo%C3%AFdienne_m%C3%A9diane</t>
+          <t>Articulation_atlanto-axoïdienne_médiane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +555,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Articulation atlanto-axoïdienne médiane antérieure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation atlanto-axoïdienne médiane antérieure est constituée de la facette articulaire antérieure du processus odontoïde et de la facette articulaire de la face postérieure de l'arc antérieur de l'atlas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Articulation_atlanto-axoïdienne_médiane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_atlanto-axo%C3%AFdienne_m%C3%A9diane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articulation atlanto-axoïdienne médiane postérieure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation atlanto-axoïdienne médiane postérieure est constituée de la facette articulaire postérieure du processus odontoïde et du ligament transverse de l'atlas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Articulation_atlanto-axoïdienne_médiane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_atlanto-axo%C3%AFdienne_m%C3%A9diane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Ligaments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Des capsules articulaires consolident l'articulation.
 A l'arrière du processus odontoïde, se trouve le ligament cruciforme de l'atlas, en forme de croix, il isole le processus du canal médullaire.
